--- a/TP4/resumen_base.xlsx
+++ b/TP4/resumen_base.xlsx
@@ -451,7 +451,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>cobertura_medica</t>
+          <t>prestamos_flia</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -498,7 +498,7 @@
         <v>189966.6571687019</v>
       </c>
       <c r="E3" t="n">
-        <v>2.788331071913162</v>
+        <v>1.763681592039801</v>
       </c>
       <c r="F3" t="n">
         <v>1.885798281320669</v>
@@ -520,7 +520,7 @@
         <v>315672.7935153602</v>
       </c>
       <c r="E4" t="n">
-        <v>2.375317828151543</v>
+        <v>0.4248680260469274</v>
       </c>
       <c r="F4" t="n">
         <v>0.3180920743432608</v>
@@ -564,7 +564,7 @@
         <v>400</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6" t="n">
         <v>2</v>
@@ -608,7 +608,7 @@
         <v>352875</v>
       </c>
       <c r="E8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F8" t="n">
         <v>2</v>
@@ -630,7 +630,7 @@
         <v>2360000</v>
       </c>
       <c r="E9" t="n">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="F9" t="n">
         <v>2</v>
